--- a/Informes y apuntes/Metricas.xlsx
+++ b/Informes y apuntes/Metricas.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mario\Documents\GitHub\UniversityHack-2020\Informes y apuntes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19570849-35F4-4B29-BEDF-B5DB8C113277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,10 +24,109 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+  <si>
+    <t>Modelo entrega final Fase I</t>
+  </si>
+  <si>
+    <t>Modelo intermedia Fase II</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Precision (macro)</t>
+  </si>
+  <si>
+    <t>Recall (macro)</t>
+  </si>
+  <si>
+    <t>F1 (macro)</t>
+  </si>
+  <si>
+    <t>0.639716684155299</t>
+  </si>
+  <si>
+    <t>0.6256331475410655</t>
+  </si>
+  <si>
+    <t>0.5672774840234329</t>
+  </si>
+  <si>
+    <t>0.585655422553868</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>20% de test y 6000 muestras de RESIDENTIAL</t>
+  </si>
+  <si>
+    <t>6% de test y 5250 muestras de RESIDENTIAL</t>
+  </si>
+  <si>
+    <t>6% de test y 5250 muestras de RESIDENTIAL. Con FE sin softmax</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Res_BASE</t>
+  </si>
+  <si>
+    <t>Res_Int-FaseII</t>
+  </si>
+  <si>
+    <t>Res_FE-01</t>
+  </si>
+  <si>
+    <t>Modelo intermedia Fase II bis</t>
+  </si>
+  <si>
+    <t>Res_Int-FaseII-BIS</t>
+  </si>
+  <si>
+    <t>0.6602972399150744</t>
+  </si>
+  <si>
+    <t>0.6523729687518774</t>
+  </si>
+  <si>
+    <t>0.6074005661239534</t>
+  </si>
+  <si>
+    <t>0.6243606643478191</t>
+  </si>
+  <si>
+    <t>concensoFE01</t>
+  </si>
+  <si>
+    <t>Res_FE-02</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,8 +154,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +446,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D11" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Informes y apuntes/Metricas.xlsx
+++ b/Informes y apuntes/Metricas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mario\Documents\GitHub\UniversityHack-2020\Informes y apuntes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\UniversityHack-2020\Informes y apuntes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19570849-35F4-4B29-BEDF-B5DB8C113277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9CAA30-8E11-4477-A1E6-DF299C4D9EDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Modelo entrega final Fase I</t>
   </si>
@@ -103,6 +103,21 @@
   </si>
   <si>
     <t>Res_FE-02</t>
+  </si>
+  <si>
+    <t>0.6358507734303912</t>
+  </si>
+  <si>
+    <t>0.6290189469497005</t>
+  </si>
+  <si>
+    <t>0.5722878750125923</t>
+  </si>
+  <si>
+    <t>0.5905455368993899</t>
+  </si>
+  <si>
+    <t>20% de test y 6000 muestras de RESIDENTIAL. Sin stratify</t>
   </si>
 </sst>
 </file>
@@ -450,20 +465,20 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -480,56 +495,68 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -555,7 +582,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -575,7 +602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D11" s="5"/>
     </row>
   </sheetData>

--- a/Informes y apuntes/Metricas.xlsx
+++ b/Informes y apuntes/Metricas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\UniversityHack-2020\Informes y apuntes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mario\Documents\GitHub\UniversityHack-2020\Informes y apuntes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9CAA30-8E11-4477-A1E6-DF299C4D9EDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5572EB-ACD4-45D1-BE27-FC2C380F8AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Modelo entrega final Fase I</t>
   </si>
@@ -118,6 +118,21 @@
   </si>
   <si>
     <t>20% de test y 6000 muestras de RESIDENTIAL. Sin stratify</t>
+  </si>
+  <si>
+    <t>0.668485484435117</t>
+  </si>
+  <si>
+    <t>0.6598443883048986</t>
+  </si>
+  <si>
+    <t>0.6049162519829469</t>
+  </si>
+  <si>
+    <t>0.6263564050424472</t>
+  </si>
+  <si>
+    <t>concensoFE02</t>
   </si>
 </sst>
 </file>
@@ -465,20 +480,20 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="6" max="6" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -489,13 +504,13 @@
         <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -508,8 +523,11 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -522,8 +540,11 @@
       <c r="D3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -536,8 +557,11 @@
       <c r="D4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -550,8 +574,11 @@
       <c r="D5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -582,7 +609,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -602,7 +629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D11" s="5"/>
     </row>
   </sheetData>

--- a/Informes y apuntes/Metricas.xlsx
+++ b/Informes y apuntes/Metricas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mario\Documents\GitHub\UniversityHack-2020\Informes y apuntes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\UniversityHack-2020\Informes y apuntes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5572EB-ACD4-45D1-BE27-FC2C380F8AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3964FBFB-EC86-4EBA-BE33-41D3D30AA4B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Modelo entrega final Fase I</t>
   </si>
@@ -133,6 +133,27 @@
   </si>
   <si>
     <t>concensoFE02</t>
+  </si>
+  <si>
+    <t>0.6378891220706542</t>
+  </si>
+  <si>
+    <t>0.6186860339302638</t>
+  </si>
+  <si>
+    <t>0.5645082943873961</t>
+  </si>
+  <si>
+    <t>0.5821432227924659</t>
+  </si>
+  <si>
+    <t>concensoFE03</t>
+  </si>
+  <si>
+    <t>20% de test y 6000 muestras de RESIDENTIAL. Con softmax</t>
+  </si>
+  <si>
+    <t>Res_FE-03</t>
   </si>
 </sst>
 </file>
@@ -480,20 +501,21 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -509,8 +531,11 @@
       <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -526,8 +551,11 @@
       <c r="E2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -543,8 +571,11 @@
       <c r="E3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -560,8 +591,11 @@
       <c r="E4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -577,8 +611,11 @@
       <c r="E5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -597,7 +634,9 @@
       <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -609,7 +648,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -628,8 +667,11 @@
       <c r="F7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D11" s="5"/>
     </row>
   </sheetData>

--- a/Informes y apuntes/Metricas.xlsx
+++ b/Informes y apuntes/Metricas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\UniversityHack-2020\Informes y apuntes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mario\Documents\GitHub\UniversityHack-2020\Informes y apuntes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3964FBFB-EC86-4EBA-BE33-41D3D30AA4B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3836F593-2B78-445E-ABD5-C29B552B0487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Modelo entrega final Fase I</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>Res_FE-03</t>
+  </si>
+  <si>
+    <t>0.6625131164742917</t>
+  </si>
+  <si>
+    <t>0.6502918508768867</t>
+  </si>
+  <si>
+    <t>0.6006358119735798</t>
+  </si>
+  <si>
+    <t>0.6201403183841798</t>
   </si>
 </sst>
 </file>
@@ -504,18 +516,18 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="6" max="6" width="28.109375" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -535,7 +547,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -554,8 +566,11 @@
       <c r="F2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -574,8 +589,11 @@
       <c r="F3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -594,8 +612,11 @@
       <c r="F4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -614,8 +635,11 @@
       <c r="F5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -648,7 +672,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -671,7 +695,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D11" s="5"/>
     </row>
   </sheetData>
